--- a/slides/lr.xlsx
+++ b/slides/lr.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_cmps460-content\slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5894E51A-78C4-496B-A0F5-BC7C53D1C046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D8A2F2-C169-46F5-B5ED-E83C9FE1FB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{4DB60BD1-2AA0-4BE9-AF0B-E8DCF890EA2E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4DB60BD1-2AA0-4BE9-AF0B-E8DCF890EA2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Univariate Linear Regression" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="Actual">'[1]Auto Correlation'!$C$4:$C$123</definedName>
@@ -58,12 +57,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>CHART SOURCE</t>
-  </si>
-  <si>
-    <t>CONE ZONE SALES</t>
   </si>
   <si>
     <t>Y-Intercept:</t>
@@ -95,9 +91,6 @@
   </si>
   <si>
     <t>Show Line</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>Avg Temp (˚C)</t>
@@ -132,13 +125,21 @@
   <si>
     <t>Forecast</t>
   </si>
+  <si>
+    <t>Ice cream sales</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Slope: 0.6958 &amp; Intercept: 10.867</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode=";;;"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
@@ -435,36 +436,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -483,22 +463,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,6 +481,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -631,7 +629,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$X$3:$X$13</c:f>
+              <c:f>'Univariate Linear Regression'!$W$3:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -673,7 +671,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$Z$3:$Z$13</c:f>
+              <c:f>'Univariate Linear Regression'!$Y$3:$Y$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -788,7 +786,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$X$3:$X$13</c:f>
+              <c:f>'Univariate Linear Regression'!$W$3:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -830,42 +828,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$AD$3:$AD$13</c:f>
+              <c:f>'Univariate Linear Regression'!$AC$3:$AC$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.867000000000001</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.346</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.825000000000003</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.304000000000002</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.783000000000001</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.262</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.741</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.22</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.698999999999998</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.177999999999997</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.656999999999996</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,7 +901,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$X$3:$X$13</c:f>
+              <c:f>'Univariate Linear Regression'!$W$3:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -945,42 +943,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$Y$3:$Y$13</c:f>
+              <c:f>'Univariate Linear Regression'!$X$3:$X$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>12.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.8</c:v>
+                  <c:v>15.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.700000000000003</c:v>
+                  <c:v>19.350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.6</c:v>
+                  <c:v>22.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.5</c:v>
+                  <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.400000000000006</c:v>
+                  <c:v>29.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.3</c:v>
+                  <c:v>33.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.2</c:v>
+                  <c:v>36.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.1</c:v>
+                  <c:v>40.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,7 +1211,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$X$17:$X$38</c:f>
+              <c:f>'Univariate Linear Regression'!$W$17:$W$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1288,72 +1286,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$Y$17:$Y$38</c:f>
+              <c:f>'Univariate Linear Regression'!$X$17:$X$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>12.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.8</c:v>
+                  <c:v>15.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.700000000000003</c:v>
+                  <c:v>19.350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.6</c:v>
+                  <c:v>22.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.5</c:v>
+                  <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.400000000000006</c:v>
+                  <c:v>29.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.3</c:v>
+                  <c:v>33.15</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.2</c:v>
+                  <c:v>36.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.1</c:v>
+                  <c:v>40.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>34</c:v>
@@ -1401,24 +1399,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$N$2:$O$2</c:f>
+              <c:f>'Univariate Linear Regression'!$M$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$N$3:$O$3</c:f>
+              <c:f>'Univariate Linear Regression'!$M$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>35.22</c:v>
+                  <c:v>36.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +1448,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$C$4:$C$13</c:f>
+              <c:f>'Univariate Linear Regression'!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1489,39 +1487,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Univariate Linear Regression'!$AB$17:$AB$26</c:f>
+              <c:f>'Univariate Linear Regression'!$AA$17:$AA$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>14.346</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.825000000000003</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.304000000000002</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.783000000000001</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.262</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.741</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.22</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.698999999999998</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.177999999999997</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.656999999999996</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,40 +2412,40 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$H$2" max="50" page="10" val="15"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$G$2" max="50" page="10" val="9"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$Z$17" max="100" page="10" val="39"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$Y$17" max="100" page="10" val="50"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AE$3" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AD$3" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AE$6" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AD$6" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AE$9" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AD$9" lockText="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$AE$12" lockText="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$AD$12" lockText="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>126365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
@@ -2457,7 +2455,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392865AC-E16E-4D16-AC04-70CAF1ADDA76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,8 +2463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3768372" y="923643"/>
-          <a:ext cx="9652424" cy="4463556"/>
+          <a:off x="3062817" y="930698"/>
+          <a:ext cx="9676765" cy="4547870"/>
           <a:chOff x="402697" y="943848"/>
           <a:chExt cx="10451840" cy="4395954"/>
         </a:xfrm>
@@ -2476,7 +2474,7 @@
           <xdr:cNvPr id="3" name="Chart 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63434A1D-41CF-0CAC-63FC-160B662FBF86}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2494,12 +2492,12 @@
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
-      <xdr:sp macro="" textlink="$H$4">
+      <xdr:sp macro="" textlink="$G$4">
         <xdr:nvSpPr>
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D36DAB3-8905-5BCA-ADEC-0CC551D0C2BB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2561,7 +2559,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>y = 0.78x + 15</a:t>
+              <a:t>y = 0.69x + 9</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="6600" b="1" i="0">
               <a:solidFill>
@@ -2581,13 +2579,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>31750</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2600,7 +2598,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A6500A-8BA2-4007-BF4C-F5D12C1E494C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2631,13 +2629,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>31750</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
+          <xdr:col>7</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -2650,7 +2648,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CBE0D2-B8B2-4D90-A68A-128A9D441D98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2681,13 +2679,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>16</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>92075</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>15875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
+          <xdr:col>16</xdr:col>
           <xdr:colOff>488950</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
@@ -2700,7 +2698,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512AA925-8E7D-4AD2-AE71-DC44A2FAD1C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2767,13 +2765,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>16</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>92075</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
+          <xdr:col>16</xdr:col>
           <xdr:colOff>488950</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
@@ -2786,7 +2784,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC76671A-E24D-44DF-8F2F-3F95432D2149}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2853,16 +2851,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
+          <xdr:col>17</xdr:col>
           <xdr:colOff>60325</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>15875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>457201</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>244475</xdr:rowOff>
+          <xdr:rowOff>247650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2872,7 +2870,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F1127B-1621-4CD5-8AF5-177024B169E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2939,14 +2937,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>18</xdr:col>
+          <xdr:col>17</xdr:col>
           <xdr:colOff>60325</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>457201</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -2958,7 +2956,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3A1EC1-CD6D-48E3-BA7A-83731F1EB5E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3057,9 +3055,9 @@
       <sheetName val="Outlier Detection"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="4">
           <cell r="F4">
@@ -28245,8 +28243,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="3">
           <cell r="BJ3" t="str">
@@ -29295,409 +29293,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="2">
-          <cell r="N2">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="N3">
-            <v>35.22</v>
-          </cell>
-          <cell r="X3">
-            <v>0</v>
-          </cell>
-          <cell r="Y3">
-            <v>15</v>
-          </cell>
-          <cell r="AD3">
-            <v>10.867000000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>5</v>
-          </cell>
-          <cell r="X4">
-            <v>5</v>
-          </cell>
-          <cell r="Y4">
-            <v>18.899999999999999</v>
-          </cell>
-          <cell r="Z4">
-            <v>8</v>
-          </cell>
-          <cell r="AD4">
-            <v>14.346</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>10</v>
-          </cell>
-          <cell r="X5">
-            <v>10</v>
-          </cell>
-          <cell r="Y5">
-            <v>22.8</v>
-          </cell>
-          <cell r="Z5">
-            <v>16</v>
-          </cell>
-          <cell r="AD5">
-            <v>17.825000000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>15</v>
-          </cell>
-          <cell r="X6">
-            <v>15</v>
-          </cell>
-          <cell r="Y6">
-            <v>26.700000000000003</v>
-          </cell>
-          <cell r="Z6">
-            <v>19</v>
-          </cell>
-          <cell r="AD6">
-            <v>21.304000000000002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>20</v>
-          </cell>
-          <cell r="X7">
-            <v>20</v>
-          </cell>
-          <cell r="Y7">
-            <v>30.6</v>
-          </cell>
-          <cell r="Z7">
-            <v>30</v>
-          </cell>
-          <cell r="AD7">
-            <v>24.783000000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>25</v>
-          </cell>
-          <cell r="X8">
-            <v>25</v>
-          </cell>
-          <cell r="Y8">
-            <v>34.5</v>
-          </cell>
-          <cell r="Z8">
-            <v>35</v>
-          </cell>
-          <cell r="AD8">
-            <v>28.262</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>30</v>
-          </cell>
-          <cell r="X9">
-            <v>30</v>
-          </cell>
-          <cell r="Y9">
-            <v>38.400000000000006</v>
-          </cell>
-          <cell r="Z9">
-            <v>30</v>
-          </cell>
-          <cell r="AD9">
-            <v>31.741</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>35</v>
-          </cell>
-          <cell r="X10">
-            <v>35</v>
-          </cell>
-          <cell r="Y10">
-            <v>42.3</v>
-          </cell>
-          <cell r="Z10">
-            <v>43</v>
-          </cell>
-          <cell r="AD10">
-            <v>35.22</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>40</v>
-          </cell>
-          <cell r="X11">
-            <v>40</v>
-          </cell>
-          <cell r="Y11">
-            <v>46.2</v>
-          </cell>
-          <cell r="Z11">
-            <v>41</v>
-          </cell>
-          <cell r="AD11">
-            <v>38.698999999999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>45</v>
-          </cell>
-          <cell r="X12">
-            <v>45</v>
-          </cell>
-          <cell r="Y12">
-            <v>50.1</v>
-          </cell>
-          <cell r="Z12">
-            <v>44</v>
-          </cell>
-          <cell r="AD12">
-            <v>42.177999999999997</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>50</v>
-          </cell>
-          <cell r="X13">
-            <v>50</v>
-          </cell>
-          <cell r="Y13">
-            <v>54</v>
-          </cell>
-          <cell r="Z13">
-            <v>34</v>
-          </cell>
-          <cell r="AD13">
-            <v>45.656999999999996</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="X17">
-            <v>0</v>
-          </cell>
-          <cell r="Y17">
-            <v>15</v>
-          </cell>
-          <cell r="AB17">
-            <v>14.346</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="X18">
-            <v>0</v>
-          </cell>
-          <cell r="Y18" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="AB18">
-            <v>17.825000000000003</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="X19">
-            <v>5</v>
-          </cell>
-          <cell r="Y19">
-            <v>18.899999999999999</v>
-          </cell>
-          <cell r="AB19">
-            <v>21.304000000000002</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="X20">
-            <v>5</v>
-          </cell>
-          <cell r="Y20">
-            <v>8</v>
-          </cell>
-          <cell r="AB20">
-            <v>24.783000000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="X21">
-            <v>10</v>
-          </cell>
-          <cell r="Y21">
-            <v>22.8</v>
-          </cell>
-          <cell r="AB21">
-            <v>28.262</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="X22">
-            <v>10</v>
-          </cell>
-          <cell r="Y22">
-            <v>16</v>
-          </cell>
-          <cell r="AB22">
-            <v>31.741</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="X23">
-            <v>15</v>
-          </cell>
-          <cell r="Y23">
-            <v>26.700000000000003</v>
-          </cell>
-          <cell r="AB23">
-            <v>35.22</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="X24">
-            <v>15</v>
-          </cell>
-          <cell r="Y24">
-            <v>19</v>
-          </cell>
-          <cell r="AB24">
-            <v>38.698999999999998</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="X25">
-            <v>20</v>
-          </cell>
-          <cell r="Y25">
-            <v>30.6</v>
-          </cell>
-          <cell r="AB25">
-            <v>42.177999999999997</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="X26">
-            <v>20</v>
-          </cell>
-          <cell r="Y26">
-            <v>30</v>
-          </cell>
-          <cell r="AB26">
-            <v>45.656999999999996</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="X27">
-            <v>25</v>
-          </cell>
-          <cell r="Y27">
-            <v>34.5</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="X28">
-            <v>25</v>
-          </cell>
-          <cell r="Y28">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="X29">
-            <v>30</v>
-          </cell>
-          <cell r="Y29">
-            <v>38.400000000000006</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="X30">
-            <v>30</v>
-          </cell>
-          <cell r="Y30">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="X31">
-            <v>35</v>
-          </cell>
-          <cell r="Y31">
-            <v>42.3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="X32">
-            <v>35</v>
-          </cell>
-          <cell r="Y32">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="X33">
-            <v>40</v>
-          </cell>
-          <cell r="Y33">
-            <v>46.2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="X34">
-            <v>40</v>
-          </cell>
-          <cell r="Y34">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="X35">
-            <v>45</v>
-          </cell>
-          <cell r="Y35">
-            <v>50.1</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="X36">
-            <v>45</v>
-          </cell>
-          <cell r="Y36">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="X37">
-            <v>50</v>
-          </cell>
-          <cell r="Y37">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="X38">
-            <v>50</v>
-          </cell>
-          <cell r="Y38">
-            <v>34</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14">
         <row r="4">
           <cell r="C4">
@@ -30300,8 +29902,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
       <sheetData sheetId="17">
         <row r="2">
           <cell r="S2" t="str">
@@ -30309,12 +29911,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -30643,980 +30245,950 @@
   <dimension ref="B1:AE38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="10.31640625" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.31640625" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
-    <col min="9" max="9" width="21.453125" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="6.453125" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" customWidth="1"/>
-    <col min="24" max="25" width="8.54296875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.54296875" hidden="1" customWidth="1"/>
-    <col min="27" max="31" width="8.54296875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.31640625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" customWidth="1"/>
+    <col min="13" max="13" width="6.453125" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" customWidth="1"/>
+    <col min="23" max="24" width="8.54296875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" hidden="1" customWidth="1"/>
+    <col min="26" max="30" width="8.54296875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="21" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="X1" s="1" t="s">
+    <row r="1" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="W1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
     </row>
-    <row r="2" spans="2:31" ht="20.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:30" ht="20.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2">
+        <v>9</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="21">
+        <f>$AA$14</f>
+        <v>370.66250000000014</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="23">
+        <v>40</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="4"/>
+      <c r="W2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" ht="20.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.69</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>3</v>
+      <c r="M3" s="25">
+        <f>IF(ISBLANK(M2),"",(M2*G3)+G2)</f>
+        <v>36.599999999999994</v>
       </c>
-      <c r="J2" s="6">
-        <f>$AB$14</f>
-        <v>760.25000000000023</v>
+      <c r="N3" s="26"/>
+      <c r="O3" s="4"/>
+      <c r="W3" s="5">
+        <v>0</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="9">
-        <v>35</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="X2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="12" t="s">
+      <c r="X3" s="5">
+        <f>IF($AD$3=TRUE,G2,NA())</f>
         <v>9</v>
       </c>
-      <c r="AC2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:31" ht="20.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.75">
-      <c r="B3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="16">
-        <f>$Z$17/50</f>
-        <v>0.78</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="18">
-        <f>IF(ISBLANK(N2),"",(N2*0.6958)+10.867)</f>
-        <v>35.22</v>
-      </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="11"/>
-      <c r="X3" s="12">
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:Z13" si="0">IF(ISBLANK(Y3),0,AB3-Y3)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="12">
-        <f>IF($AE$3=TRUE,H2,NA())</f>
-        <v>15</v>
-      </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="12">
-        <f t="shared" ref="AA3:AA13" si="0">IF(ISBLANK(Z3),0,AC3-Z3)</f>
+      <c r="AA3" s="5">
+        <f>Z3^2</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="12">
-        <f>AA3^2</f>
-        <v>0</v>
+      <c r="AB3" s="5">
+        <f>G2</f>
+        <v>9</v>
       </c>
-      <c r="AC3" s="12">
-        <f>H2</f>
-        <v>15</v>
+      <c r="AC3" s="5" t="e">
+        <f>IF($AD$9=TRUE,(0.6958*$W3)+10.867,NA())</f>
+        <v>#N/A</v>
       </c>
-      <c r="AD3" s="12">
-        <f>IF($AE$9=TRUE,(0.6958*$X3)+10.867,NA())</f>
-        <v>10.867000000000001</v>
-      </c>
-      <c r="AE3" s="21" t="b">
+      <c r="AD3" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B4" s="22">
-        <v>43876</v>
-      </c>
-      <c r="C4" s="23">
+    <row r="4" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B4" s="12">
         <v>5</v>
       </c>
-      <c r="D4" s="23">
+      <c r="C4" s="12">
         <v>8</v>
       </c>
-      <c r="E4" s="24">
-        <f>(0.6958*C4)+10.867</f>
+      <c r="D4" s="13">
+        <f>(0.6958*B4)+10.867</f>
         <v>14.346</v>
       </c>
-      <c r="H4" s="25" t="str">
-        <f>"y = "&amp;H3&amp;"x + "&amp;H2</f>
-        <v>y = 0.78x + 15</v>
+      <c r="G4" s="14" t="str">
+        <f>"y = "&amp;G3&amp;"x + "&amp;G2</f>
+        <v>y = 0.69x + 9</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="X4" s="12">
+      <c r="H4" s="15"/>
+      <c r="W4" s="5">
         <v>5</v>
       </c>
-      <c r="Y4" s="12">
-        <f>IF($AE$3=TRUE,($H$3*$X4)+$H$2,NA())</f>
-        <v>18.899999999999999</v>
+      <c r="X4" s="5">
+        <f>IF($AD$3=TRUE,($G$3*$W4)+$G$2,NA())</f>
+        <v>12.45</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Y4" s="5">
         <v>8</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="Z4" s="5">
         <f t="shared" si="0"/>
-        <v>10.899999999999999</v>
+        <v>4.4499999999999993</v>
       </c>
-      <c r="AB4" s="12">
-        <f t="shared" ref="AB4:AB13" si="1">AA4^2</f>
-        <v>118.80999999999997</v>
+      <c r="AA4" s="5">
+        <f t="shared" ref="AA4:AA13" si="1">Z4^2</f>
+        <v>19.802499999999995</v>
       </c>
-      <c r="AC4" s="12">
-        <f>($H$3*$X4)+$H$2</f>
-        <v>18.899999999999999</v>
+      <c r="AB4" s="5">
+        <f>($G$3*$W4)+$G$2</f>
+        <v>12.45</v>
       </c>
-      <c r="AD4" s="12">
-        <f t="shared" ref="AD4:AD13" si="2">IF($AE$9=TRUE,(0.6958*$X4)+10.867,NA())</f>
-        <v>14.346</v>
+      <c r="AC4" s="5" t="e">
+        <f t="shared" ref="AC4:AC13" si="2">IF($AD$9=TRUE,(0.6958*$W4)+10.867,NA())</f>
+        <v>#N/A</v>
       </c>
-      <c r="AE4" s="21"/>
+      <c r="AD4" s="11"/>
     </row>
-    <row r="5" spans="2:31" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B5" s="22">
-        <v>43914</v>
-      </c>
-      <c r="C5" s="23">
+    <row r="5" spans="2:30" ht="14.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B5" s="12">
         <v>10</v>
       </c>
-      <c r="D5" s="23">
+      <c r="C5" s="12">
         <v>16</v>
       </c>
-      <c r="E5" s="24">
-        <f t="shared" ref="E5:E13" si="3">(0.6958*C5)+10.867</f>
+      <c r="D5" s="13">
+        <f t="shared" ref="D5:D13" si="3">(0.6958*B5)+10.867</f>
         <v>17.825000000000003</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="X5" s="12">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="W5" s="5">
         <v>10</v>
       </c>
-      <c r="Y5" s="12">
-        <f t="shared" ref="Y5:Y13" si="4">IF($AE$3=TRUE,($H$3*$X5)+$H$2,NA())</f>
-        <v>22.8</v>
+      <c r="X5" s="5">
+        <f t="shared" ref="X5:X13" si="4">IF($AD$3=TRUE,($G$3*$W5)+$G$2,NA())</f>
+        <v>15.899999999999999</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Y5" s="5">
         <v>16</v>
       </c>
-      <c r="AA5" s="12">
-        <f>IF(ISBLANK(Z5),0,AC5-Z5)</f>
-        <v>6.8000000000000007</v>
+      <c r="Z5" s="5">
+        <f>IF(ISBLANK(Y5),0,AB5-Y5)</f>
+        <v>-0.10000000000000142</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AA5" s="5">
         <f t="shared" si="1"/>
-        <v>46.240000000000009</v>
+        <v>1.0000000000000285E-2</v>
       </c>
-      <c r="AC5" s="12">
-        <f t="shared" ref="AC5:AC13" si="5">($H$3*$X5)+$H$2</f>
-        <v>22.8</v>
+      <c r="AB5" s="5">
+        <f t="shared" ref="AB5:AB13" si="5">($G$3*$W5)+$G$2</f>
+        <v>15.899999999999999</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AC5" s="5" t="e">
         <f t="shared" si="2"/>
-        <v>17.825000000000003</v>
+        <v>#N/A</v>
       </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AD5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="B6" s="12">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="3"/>
+        <v>21.304000000000002</v>
+      </c>
+      <c r="W6" s="5">
+        <v>15</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="4"/>
+        <v>19.350000000000001</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="AA6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.122500000000001</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="5"/>
+        <v>19.350000000000001</v>
+      </c>
+      <c r="AC6" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD6" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="B7" s="12">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="3"/>
+        <v>24.783000000000001</v>
+      </c>
+      <c r="W7" s="5">
+        <v>20</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="4"/>
+        <v>22.799999999999997</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="AA7" s="5">
+        <f t="shared" si="1"/>
+        <v>51.840000000000039</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="5"/>
+        <v>22.799999999999997</v>
+      </c>
+      <c r="AC7" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="B8" s="12">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12">
+        <v>35</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="3"/>
+        <v>28.262</v>
+      </c>
+      <c r="W8" s="5">
+        <v>25</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="4"/>
+        <v>26.25</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="0"/>
+        <v>-8.75</v>
+      </c>
+      <c r="AA8" s="5">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+      <c r="AB8" s="5">
+        <f t="shared" si="5"/>
+        <v>26.25</v>
+      </c>
+      <c r="AC8" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="B9" s="12">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="3"/>
+        <v>31.741</v>
+      </c>
+      <c r="W9" s="5">
+        <v>30</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="4"/>
+        <v>29.7</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="AA9" s="5">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000427E-2</v>
+      </c>
+      <c r="AB9" s="5">
+        <f t="shared" si="5"/>
+        <v>29.7</v>
+      </c>
+      <c r="AC9" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD9" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="B10" s="12">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="3"/>
+        <v>35.22</v>
+      </c>
+      <c r="W10" s="5">
+        <v>35</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="4"/>
+        <v>33.15</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.8500000000000014</v>
+      </c>
+      <c r="AA10" s="5">
+        <f t="shared" si="1"/>
+        <v>97.022500000000022</v>
+      </c>
+      <c r="AB10" s="5">
+        <f t="shared" si="5"/>
+        <v>33.15</v>
+      </c>
+      <c r="AC10" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="B11" s="12">
+        <v>40</v>
+      </c>
+      <c r="C11" s="12">
+        <v>41</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="3"/>
+        <v>38.698999999999998</v>
+      </c>
+      <c r="W11" s="5">
+        <v>40</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="4"/>
+        <v>36.599999999999994</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>41</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.4000000000000057</v>
+      </c>
+      <c r="AA11" s="5">
+        <f t="shared" si="1"/>
+        <v>19.360000000000049</v>
+      </c>
+      <c r="AB11" s="5">
+        <f t="shared" si="5"/>
+        <v>36.599999999999994</v>
+      </c>
+      <c r="AC11" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD11" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="B6" s="22">
-        <v>43932</v>
-      </c>
-      <c r="C6" s="23">
-        <v>15</v>
-      </c>
-      <c r="D6" s="23">
-        <v>19</v>
-      </c>
-      <c r="E6" s="24">
-        <f t="shared" si="3"/>
-        <v>21.304000000000002</v>
-      </c>
-      <c r="X6" s="12">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="12">
-        <f t="shared" si="4"/>
-        <v>26.700000000000003</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>19</v>
-      </c>
-      <c r="AA6" s="12">
-        <f t="shared" si="0"/>
-        <v>7.7000000000000028</v>
-      </c>
-      <c r="AB6" s="12">
-        <f t="shared" si="1"/>
-        <v>59.290000000000042</v>
-      </c>
-      <c r="AC6" s="12">
-        <f t="shared" si="5"/>
-        <v>26.700000000000003</v>
-      </c>
-      <c r="AD6" s="12">
-        <f t="shared" si="2"/>
-        <v>21.304000000000002</v>
-      </c>
-      <c r="AE6" s="21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="B7" s="22">
-        <v>43967</v>
-      </c>
-      <c r="C7" s="23">
-        <v>20</v>
-      </c>
-      <c r="D7" s="23">
-        <v>30</v>
-      </c>
-      <c r="E7" s="24">
-        <f t="shared" si="3"/>
-        <v>24.783000000000001</v>
-      </c>
-      <c r="X7" s="12">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="12">
-        <f t="shared" si="4"/>
-        <v>30.6</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000142</v>
-      </c>
-      <c r="AB7" s="12">
-        <f t="shared" si="1"/>
-        <v>0.36000000000000171</v>
-      </c>
-      <c r="AC7" s="12">
-        <f t="shared" si="5"/>
-        <v>30.6</v>
-      </c>
-      <c r="AD7" s="12">
-        <f t="shared" si="2"/>
-        <v>24.783000000000001</v>
-      </c>
-      <c r="AE7" s="21"/>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="B8" s="22">
-        <v>44032</v>
-      </c>
-      <c r="C8" s="23">
-        <v>25</v>
-      </c>
-      <c r="D8" s="23">
-        <v>35</v>
-      </c>
-      <c r="E8" s="24">
-        <f t="shared" si="3"/>
-        <v>28.262</v>
-      </c>
-      <c r="X8" s="12">
-        <v>25</v>
-      </c>
-      <c r="Y8" s="12">
-        <f t="shared" si="4"/>
-        <v>34.5</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>35</v>
-      </c>
-      <c r="AA8" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="AB8" s="12">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="AC8" s="12">
-        <f t="shared" si="5"/>
-        <v>34.5</v>
-      </c>
-      <c r="AD8" s="12">
-        <f t="shared" si="2"/>
-        <v>28.262</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="B9" s="22">
-        <v>44045</v>
-      </c>
-      <c r="C9" s="23">
-        <v>30</v>
-      </c>
-      <c r="D9" s="23">
-        <v>30</v>
-      </c>
-      <c r="E9" s="24">
-        <f t="shared" si="3"/>
-        <v>31.741</v>
-      </c>
-      <c r="X9" s="12">
-        <v>30</v>
-      </c>
-      <c r="Y9" s="12">
-        <f t="shared" si="4"/>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>30</v>
-      </c>
-      <c r="AA9" s="12">
-        <f t="shared" si="0"/>
-        <v>8.4000000000000057</v>
-      </c>
-      <c r="AB9" s="12">
-        <f t="shared" si="1"/>
-        <v>70.560000000000102</v>
-      </c>
-      <c r="AC9" s="12">
-        <f t="shared" si="5"/>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="AD9" s="12">
-        <f t="shared" si="2"/>
-        <v>31.741</v>
-      </c>
-      <c r="AE9" s="21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="B10" s="22">
-        <v>44083</v>
-      </c>
-      <c r="C10" s="23">
-        <v>35</v>
-      </c>
-      <c r="D10" s="23">
-        <v>43</v>
-      </c>
-      <c r="E10" s="24">
-        <f t="shared" si="3"/>
-        <v>35.22</v>
-      </c>
-      <c r="X10" s="12">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="12">
-        <f t="shared" si="4"/>
-        <v>42.3</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>43</v>
-      </c>
-      <c r="AA10" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.70000000000000284</v>
-      </c>
-      <c r="AB10" s="12">
-        <f t="shared" si="1"/>
-        <v>0.49000000000000399</v>
-      </c>
-      <c r="AC10" s="12">
-        <f t="shared" si="5"/>
-        <v>42.3</v>
-      </c>
-      <c r="AD10" s="12">
-        <f t="shared" si="2"/>
-        <v>35.22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="B11" s="22">
-        <v>44022</v>
-      </c>
-      <c r="C11" s="23">
-        <v>40</v>
-      </c>
-      <c r="D11" s="23">
-        <v>41</v>
-      </c>
-      <c r="E11" s="24">
-        <f t="shared" si="3"/>
-        <v>38.698999999999998</v>
-      </c>
-      <c r="X11" s="12">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="12">
-        <f t="shared" si="4"/>
-        <v>46.2</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>41</v>
-      </c>
-      <c r="AA11" s="12">
-        <f t="shared" si="0"/>
-        <v>5.2000000000000028</v>
-      </c>
-      <c r="AB11" s="12">
-        <f t="shared" si="1"/>
-        <v>27.040000000000031</v>
-      </c>
-      <c r="AC11" s="12">
-        <f t="shared" si="5"/>
-        <v>46.2</v>
-      </c>
-      <c r="AD11" s="12">
-        <f t="shared" si="2"/>
-        <v>38.698999999999998</v>
-      </c>
-      <c r="AE11" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="B12" s="22">
-        <v>44028</v>
-      </c>
-      <c r="C12" s="23">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="B12" s="12">
         <v>45</v>
       </c>
-      <c r="D12" s="23">
+      <c r="C12" s="12">
         <v>44</v>
       </c>
-      <c r="E12" s="24">
+      <c r="D12" s="13">
         <f t="shared" si="3"/>
         <v>42.177999999999997</v>
       </c>
-      <c r="X12" s="12">
+      <c r="W12" s="5">
         <v>45</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="X12" s="5">
         <f t="shared" si="4"/>
-        <v>50.1</v>
+        <v>40.049999999999997</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Y12" s="5">
         <v>44</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="Z12" s="5">
         <f t="shared" si="0"/>
-        <v>6.1000000000000014</v>
+        <v>-3.9500000000000028</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AA12" s="5">
         <f t="shared" si="1"/>
-        <v>37.210000000000015</v>
+        <v>15.602500000000022</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AB12" s="5">
         <f t="shared" si="5"/>
-        <v>50.1</v>
+        <v>40.049999999999997</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AC12" s="5" t="e">
         <f t="shared" si="2"/>
-        <v>42.177999999999997</v>
+        <v>#N/A</v>
       </c>
-      <c r="AE12" s="21" t="b">
-        <v>1</v>
+      <c r="AD12" s="11" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="B13" s="22">
-        <v>44073</v>
-      </c>
-      <c r="C13" s="23">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="B13" s="12">
         <v>50</v>
       </c>
-      <c r="D13" s="23">
+      <c r="C13" s="12">
         <v>34</v>
       </c>
-      <c r="E13" s="24">
+      <c r="D13" s="13">
         <f t="shared" si="3"/>
         <v>45.656999999999996</v>
       </c>
-      <c r="X13" s="12">
+      <c r="W13" s="5">
         <v>50</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="X13" s="5">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>43.5</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Y13" s="5">
         <v>34</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="Z13" s="5">
         <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="AA13" s="5">
+        <f t="shared" si="1"/>
+        <v>90.25</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" si="5"/>
+        <v>43.5</v>
+      </c>
+      <c r="AC13" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="6">
+        <f>SUM(Z3:Z13)</f>
+        <v>-20.250000000000014</v>
+      </c>
+      <c r="AA14" s="6">
+        <f>SUM(AA3:AA13)</f>
+        <v>370.66250000000014</v>
+      </c>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.75">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AB13" s="12">
-        <f t="shared" si="1"/>
-        <v>400</v>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11" t="s">
+        <v>21</v>
       </c>
-      <c r="AC13" s="12">
-        <f t="shared" si="5"/>
-        <v>54</v>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="B17" t="s">
+        <v>24</v>
       </c>
-      <c r="AD13" s="12">
-        <f t="shared" si="2"/>
-        <v>45.656999999999996</v>
+      <c r="W17" s="5">
+        <v>0</v>
       </c>
+      <c r="X17" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W17,$W$3:$Y$13,COUNTIF($W$17:W17,W17)+1,0)=0,NA(),VLOOKUP($W17,$W$3:$Y$13,COUNTIF($W$17:W17,W17)+1,0)),NA())</f>
+        <v>9</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="5" t="e">
+        <f>IF($AD$12=TRUE,D4,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="13">
-        <f>SUM(AA3:AA13)</f>
-        <v>64.5</v>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W18" s="5">
+        <v>0</v>
       </c>
-      <c r="AB14" s="13">
-        <f>SUM(AB3:AB13)</f>
-        <v>760.25000000000023</v>
+      <c r="X18" s="5" t="e">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W18,$W$3:$Y$13,COUNTIF($W$17:W18,W18)+1,0)=0,NA(),VLOOKUP($W18,$W$3:$Y$13,COUNTIF($W$17:W18,W18)+1,0)),NA())</f>
+        <v>#N/A</v>
       </c>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="5" t="e">
+        <f t="shared" ref="AA18:AA26" si="6">IF($AD$12=TRUE,D5,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.75">
-      <c r="X16" s="12" t="s">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W19" s="5">
         <v>5</v>
       </c>
-      <c r="Y16" s="12" t="s">
-        <v>21</v>
+      <c r="X19" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W19,$W$3:$Y$13,COUNTIF($W$17:W19,W19)+1,0)=0,NA(),VLOOKUP($W19,$W$3:$Y$13,COUNTIF($W$17:W19,W19)+1,0)),NA())</f>
+        <v>12.45</v>
       </c>
-      <c r="Z16" s="21" t="s">
-        <v>22</v>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
       </c>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21" t="s">
-        <v>23</v>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W20" s="5">
+        <v>5</v>
       </c>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
+      <c r="X20" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W20,$W$3:$Y$13,COUNTIF($W$17:W20,W20)+1,0)=0,NA(),VLOOKUP($W20,$W$3:$Y$13,COUNTIF($W$17:W20,W20)+1,0)),NA())</f>
+        <v>8</v>
+      </c>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
     </row>
-    <row r="17" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X17" s="12">
-        <v>0</v>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W21" s="5">
+        <v>10</v>
       </c>
-      <c r="Y17" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X17,$X$3:$Z$13,COUNTIF($X$17:X17,X17)+1,0)=0,NA(),VLOOKUP($X17,$X$3:$Z$13,COUNTIF($X$17:X17,X17)+1,0)),NA())</f>
+      <c r="X21" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W21,$W$3:$Y$13,COUNTIF($W$17:W21,W21)+1,0)=0,NA(),VLOOKUP($W21,$W$3:$Y$13,COUNTIF($W$17:W21,W21)+1,0)),NA())</f>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W22" s="5">
+        <v>10</v>
+      </c>
+      <c r="X22" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W22,$W$3:$Y$13,COUNTIF($W$17:W22,W22)+1,0)=0,NA(),VLOOKUP($W22,$W$3:$Y$13,COUNTIF($W$17:W22,W22)+1,0)),NA())</f>
+        <v>16</v>
+      </c>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W23" s="5">
         <v>15</v>
       </c>
-      <c r="Z17" s="13">
-        <v>39</v>
+      <c r="X23" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W23,$W$3:$Y$13,COUNTIF($W$17:W23,W23)+1,0)=0,NA(),VLOOKUP($W23,$W$3:$Y$13,COUNTIF($W$17:W23,W23)+1,0)),NA())</f>
+        <v>19.350000000000001</v>
       </c>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="12">
-        <f>IF($AE$12=TRUE,E4,NA())</f>
-        <v>14.346</v>
-      </c>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-    </row>
-    <row r="18" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="12" t="e">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X18,$X$3:$Z$13,COUNTIF($X$17:X18,X18)+1,0)=0,NA(),VLOOKUP($X18,$X$3:$Z$13,COUNTIF($X$17:X18,X18)+1,0)),NA())</f>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="5" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="12">
-        <f t="shared" ref="AB18:AB26" si="6">IF($AE$12=TRUE,E5,NA())</f>
-        <v>17.825000000000003</v>
-      </c>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
     </row>
-    <row r="19" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X19" s="12">
-        <v>5</v>
-      </c>
-      <c r="Y19" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X19,$X$3:$Z$13,COUNTIF($X$17:X19,X19)+1,0)=0,NA(),VLOOKUP($X19,$X$3:$Z$13,COUNTIF($X$17:X19,X19)+1,0)),NA())</f>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="12">
-        <f t="shared" si="6"/>
-        <v>21.304000000000002</v>
-      </c>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-    </row>
-    <row r="20" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X20" s="12">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X20,$X$3:$Z$13,COUNTIF($X$17:X20,X20)+1,0)=0,NA(),VLOOKUP($X20,$X$3:$Z$13,COUNTIF($X$17:X20,X20)+1,0)),NA())</f>
-        <v>8</v>
-      </c>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="12">
-        <f t="shared" si="6"/>
-        <v>24.783000000000001</v>
-      </c>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-    </row>
-    <row r="21" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X21" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X21,$X$3:$Z$13,COUNTIF($X$17:X21,X21)+1,0)=0,NA(),VLOOKUP($X21,$X$3:$Z$13,COUNTIF($X$17:X21,X21)+1,0)),NA())</f>
-        <v>22.8</v>
-      </c>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="12">
-        <f t="shared" si="6"/>
-        <v>28.262</v>
-      </c>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-    </row>
-    <row r="22" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X22" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y22" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X22,$X$3:$Z$13,COUNTIF($X$17:X22,X22)+1,0)=0,NA(),VLOOKUP($X22,$X$3:$Z$13,COUNTIF($X$17:X22,X22)+1,0)),NA())</f>
-        <v>16</v>
-      </c>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="12">
-        <f t="shared" si="6"/>
-        <v>31.741</v>
-      </c>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-    </row>
-    <row r="23" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X23" s="12">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W24" s="5">
         <v>15</v>
       </c>
-      <c r="Y23" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X23,$X$3:$Z$13,COUNTIF($X$17:X23,X23)+1,0)=0,NA(),VLOOKUP($X23,$X$3:$Z$13,COUNTIF($X$17:X23,X23)+1,0)),NA())</f>
-        <v>26.700000000000003</v>
-      </c>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="12">
-        <f t="shared" si="6"/>
-        <v>35.22</v>
-      </c>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-    </row>
-    <row r="24" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X24" s="12">
-        <v>15</v>
-      </c>
-      <c r="Y24" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X24,$X$3:$Z$13,COUNTIF($X$17:X24,X24)+1,0)=0,NA(),VLOOKUP($X24,$X$3:$Z$13,COUNTIF($X$17:X24,X24)+1,0)),NA())</f>
+      <c r="X24" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W24,$W$3:$Y$13,COUNTIF($W$17:W24,W24)+1,0)=0,NA(),VLOOKUP($W24,$W$3:$Y$13,COUNTIF($W$17:W24,W24)+1,0)),NA())</f>
         <v>19</v>
       </c>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="12">
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>38.698999999999998</v>
+        <v>#N/A</v>
       </c>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
     </row>
-    <row r="25" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X25" s="12">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W25" s="5">
         <v>20</v>
       </c>
-      <c r="Y25" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X25,$X$3:$Z$13,COUNTIF($X$17:X25,X25)+1,0)=0,NA(),VLOOKUP($X25,$X$3:$Z$13,COUNTIF($X$17:X25,X25)+1,0)),NA())</f>
-        <v>30.6</v>
+      <c r="X25" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W25,$W$3:$Y$13,COUNTIF($W$17:W25,W25)+1,0)=0,NA(),VLOOKUP($W25,$W$3:$Y$13,COUNTIF($W$17:W25,W25)+1,0)),NA())</f>
+        <v>22.799999999999997</v>
       </c>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="12">
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>42.177999999999997</v>
+        <v>#N/A</v>
       </c>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
     </row>
-    <row r="26" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X26" s="12">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W26" s="5">
         <v>20</v>
       </c>
-      <c r="Y26" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X26,$X$3:$Z$13,COUNTIF($X$17:X26,X26)+1,0)=0,NA(),VLOOKUP($X26,$X$3:$Z$13,COUNTIF($X$17:X26,X26)+1,0)),NA())</f>
+      <c r="X26" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W26,$W$3:$Y$13,COUNTIF($W$17:W26,W26)+1,0)=0,NA(),VLOOKUP($W26,$W$3:$Y$13,COUNTIF($W$17:W26,W26)+1,0)),NA())</f>
         <v>30</v>
       </c>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="12">
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>45.656999999999996</v>
+        <v>#N/A</v>
       </c>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
     </row>
-    <row r="27" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X27" s="12">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W27" s="5">
         <v>25</v>
       </c>
-      <c r="Y27" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X27,$X$3:$Z$13,COUNTIF($X$17:X27,X27)+1,0)=0,NA(),VLOOKUP($X27,$X$3:$Z$13,COUNTIF($X$17:X27,X27)+1,0)),NA())</f>
-        <v>34.5</v>
+      <c r="X27" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W27,$W$3:$Y$13,COUNTIF($W$17:W27,W27)+1,0)=0,NA(),VLOOKUP($W27,$W$3:$Y$13,COUNTIF($W$17:W27,W27)+1,0)),NA())</f>
+        <v>26.25</v>
       </c>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
     </row>
-    <row r="28" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X28" s="12">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W28" s="5">
         <v>25</v>
       </c>
-      <c r="Y28" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X28,$X$3:$Z$13,COUNTIF($X$17:X28,X28)+1,0)=0,NA(),VLOOKUP($X28,$X$3:$Z$13,COUNTIF($X$17:X28,X28)+1,0)),NA())</f>
+      <c r="X28" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W28,$W$3:$Y$13,COUNTIF($W$17:W28,W28)+1,0)=0,NA(),VLOOKUP($W28,$W$3:$Y$13,COUNTIF($W$17:W28,W28)+1,0)),NA())</f>
         <v>35</v>
       </c>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
     </row>
-    <row r="29" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X29" s="12">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W29" s="5">
         <v>30</v>
       </c>
-      <c r="Y29" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X29,$X$3:$Z$13,COUNTIF($X$17:X29,X29)+1,0)=0,NA(),VLOOKUP($X29,$X$3:$Z$13,COUNTIF($X$17:X29,X29)+1,0)),NA())</f>
-        <v>38.400000000000006</v>
+      <c r="X29" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W29,$W$3:$Y$13,COUNTIF($W$17:W29,W29)+1,0)=0,NA(),VLOOKUP($W29,$W$3:$Y$13,COUNTIF($W$17:W29,W29)+1,0)),NA())</f>
+        <v>29.7</v>
       </c>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
     </row>
-    <row r="30" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X30" s="12">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W30" s="5">
         <v>30</v>
       </c>
-      <c r="Y30" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X30,$X$3:$Z$13,COUNTIF($X$17:X30,X30)+1,0)=0,NA(),VLOOKUP($X30,$X$3:$Z$13,COUNTIF($X$17:X30,X30)+1,0)),NA())</f>
+      <c r="X30" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W30,$W$3:$Y$13,COUNTIF($W$17:W30,W30)+1,0)=0,NA(),VLOOKUP($W30,$W$3:$Y$13,COUNTIF($W$17:W30,W30)+1,0)),NA())</f>
         <v>30</v>
       </c>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
     </row>
-    <row r="31" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X31" s="12">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W31" s="5">
         <v>35</v>
       </c>
-      <c r="Y31" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X31,$X$3:$Z$13,COUNTIF($X$17:X31,X31)+1,0)=0,NA(),VLOOKUP($X31,$X$3:$Z$13,COUNTIF($X$17:X31,X31)+1,0)),NA())</f>
-        <v>42.3</v>
+      <c r="X31" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W31,$W$3:$Y$13,COUNTIF($W$17:W31,W31)+1,0)=0,NA(),VLOOKUP($W31,$W$3:$Y$13,COUNTIF($W$17:W31,W31)+1,0)),NA())</f>
+        <v>33.15</v>
       </c>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
     </row>
-    <row r="32" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X32" s="12">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.75">
+      <c r="W32" s="5">
         <v>35</v>
       </c>
-      <c r="Y32" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X32,$X$3:$Z$13,COUNTIF($X$17:X32,X32)+1,0)=0,NA(),VLOOKUP($X32,$X$3:$Z$13,COUNTIF($X$17:X32,X32)+1,0)),NA())</f>
+      <c r="X32" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W32,$W$3:$Y$13,COUNTIF($W$17:W32,W32)+1,0)=0,NA(),VLOOKUP($W32,$W$3:$Y$13,COUNTIF($W$17:W32,W32)+1,0)),NA())</f>
         <v>43</v>
       </c>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
     </row>
-    <row r="33" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X33" s="12">
+    <row r="33" spans="23:29" x14ac:dyDescent="0.75">
+      <c r="W33" s="5">
         <v>40</v>
       </c>
-      <c r="Y33" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X33,$X$3:$Z$13,COUNTIF($X$17:X33,X33)+1,0)=0,NA(),VLOOKUP($X33,$X$3:$Z$13,COUNTIF($X$17:X33,X33)+1,0)),NA())</f>
-        <v>46.2</v>
+      <c r="X33" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W33,$W$3:$Y$13,COUNTIF($W$17:W33,W33)+1,0)=0,NA(),VLOOKUP($W33,$W$3:$Y$13,COUNTIF($W$17:W33,W33)+1,0)),NA())</f>
+        <v>36.599999999999994</v>
       </c>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
     </row>
-    <row r="34" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X34" s="12">
+    <row r="34" spans="23:29" x14ac:dyDescent="0.75">
+      <c r="W34" s="5">
         <v>40</v>
       </c>
-      <c r="Y34" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X34,$X$3:$Z$13,COUNTIF($X$17:X34,X34)+1,0)=0,NA(),VLOOKUP($X34,$X$3:$Z$13,COUNTIF($X$17:X34,X34)+1,0)),NA())</f>
+      <c r="X34" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W34,$W$3:$Y$13,COUNTIF($W$17:W34,W34)+1,0)=0,NA(),VLOOKUP($W34,$W$3:$Y$13,COUNTIF($W$17:W34,W34)+1,0)),NA())</f>
         <v>41</v>
       </c>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
     </row>
-    <row r="35" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X35" s="12">
+    <row r="35" spans="23:29" x14ac:dyDescent="0.75">
+      <c r="W35" s="5">
         <v>45</v>
       </c>
-      <c r="Y35" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X35,$X$3:$Z$13,COUNTIF($X$17:X35,X35)+1,0)=0,NA(),VLOOKUP($X35,$X$3:$Z$13,COUNTIF($X$17:X35,X35)+1,0)),NA())</f>
-        <v>50.1</v>
+      <c r="X35" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W35,$W$3:$Y$13,COUNTIF($W$17:W35,W35)+1,0)=0,NA(),VLOOKUP($W35,$W$3:$Y$13,COUNTIF($W$17:W35,W35)+1,0)),NA())</f>
+        <v>40.049999999999997</v>
       </c>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
     </row>
-    <row r="36" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X36" s="12">
+    <row r="36" spans="23:29" x14ac:dyDescent="0.75">
+      <c r="W36" s="5">
         <v>45</v>
       </c>
-      <c r="Y36" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X36,$X$3:$Z$13,COUNTIF($X$17:X36,X36)+1,0)=0,NA(),VLOOKUP($X36,$X$3:$Z$13,COUNTIF($X$17:X36,X36)+1,0)),NA())</f>
+      <c r="X36" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W36,$W$3:$Y$13,COUNTIF($W$17:W36,W36)+1,0)=0,NA(),VLOOKUP($W36,$W$3:$Y$13,COUNTIF($W$17:W36,W36)+1,0)),NA())</f>
         <v>44</v>
       </c>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
     </row>
-    <row r="37" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X37" s="12">
+    <row r="37" spans="23:29" x14ac:dyDescent="0.75">
+      <c r="W37" s="5">
         <v>50</v>
       </c>
-      <c r="Y37" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X37,$X$3:$Z$13,COUNTIF($X$17:X37,X37)+1,0)=0,NA(),VLOOKUP($X37,$X$3:$Z$13,COUNTIF($X$17:X37,X37)+1,0)),NA())</f>
-        <v>54</v>
+      <c r="X37" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W37,$W$3:$Y$13,COUNTIF($W$17:W37,W37)+1,0)=0,NA(),VLOOKUP($W37,$W$3:$Y$13,COUNTIF($W$17:W37,W37)+1,0)),NA())</f>
+        <v>43.5</v>
       </c>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
     </row>
-    <row r="38" spans="24:30" x14ac:dyDescent="0.75">
-      <c r="X38" s="12">
+    <row r="38" spans="23:29" x14ac:dyDescent="0.75">
+      <c r="W38" s="5">
         <v>50</v>
       </c>
-      <c r="Y38" s="12">
-        <f>IF($AE$6=TRUE,IF(VLOOKUP($X38,$X$3:$Z$13,COUNTIF($X$17:X38,X38)+1,0)=0,NA(),VLOOKUP($X38,$X$3:$Z$13,COUNTIF($X$17:X38,X38)+1,0)),NA())</f>
+      <c r="X38" s="5">
+        <f>IF($AD$6=TRUE,IF(VLOOKUP($W38,$W$3:$Y$13,COUNTIF($W$17:W38,W38)+1,0)=0,NA(),VLOOKUP($W38,$W$3:$Y$13,COUNTIF($W$17:W38,W38)+1,0)),NA())</f>
         <v>34</v>
       </c>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="X1:AE1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="W1:AD1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -31631,13 +31203,13 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -31653,13 +31225,13 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>7</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -31675,13 +31247,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="Show Line">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>16</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>92075</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>15875</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>17</xdr:col>
+                    <xdr:col>16</xdr:col>
                     <xdr:colOff>488950</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
@@ -31697,13 +31269,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="Show Line">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>16</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>92075</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>17</xdr:col>
+                    <xdr:col>16</xdr:col>
                     <xdr:colOff>488950</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
@@ -31719,16 +31291,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="Show Line">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>18</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>60325</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>15875</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>19</xdr:col>
+                    <xdr:col>18</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>244475</xdr:rowOff>
+                    <xdr:rowOff>247650</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -31741,13 +31313,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="Show Line">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>18</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>60325</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>19</xdr:col>
+                    <xdr:col>18</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
@@ -31761,16 +31333,4 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526F5615-2B01-4C9C-A6C8-3DAA34462D2E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>